--- a/biology/Médecine/Valve_tricuspide/Valve_tricuspide.xlsx
+++ b/biology/Médecine/Valve_tricuspide/Valve_tricuspide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, les valves cardiaques sont des structures du cœur, séparant les différentes cavités et empêchant le sang de refluer dans le mauvais sens.
 La valve tricuspide, anciennement appelée valvule tricuspide, est la valve cardiaque qui sépare l'atrium droit du ventricule droit. La valve tricuspide est également appelée valve atrio-ventriculaire droite ou dans l'ancienne nomenclature, valve auriculo-ventriculaire droite.
@@ -512,9 +524,11 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est composée de trois feuillets (des valvules), insérées sur un anneau (l'anneau tricuspidien) séparant l'atrium droit du ventricule droit. Ces trois feuillets sont dits septal, antérieur et postérieur (ou inférieur). Chaque feuillet est relié à son propre pilier par des cordages mais il existe de nombreuses variations anatomiques[1]. Le feuillet le plus large est le feuillet antérieur, le plus petit, le feuillet septal.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est composée de trois feuillets (des valvules), insérées sur un anneau (l'anneau tricuspidien) séparant l'atrium droit du ventricule droit. Ces trois feuillets sont dits septal, antérieur et postérieur (ou inférieur). Chaque feuillet est relié à son propre pilier par des cordages mais il existe de nombreuses variations anatomiques. Le feuillet le plus large est le feuillet antérieur, le plus petit, le feuillet septal.
 L'anneau tricuspide n'est pas plan et a une forme d'ovale aplati.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fermée pendant la systole ventriculaire, elle s’oppose au reflux du sang dans l’atrium. Pendant la diastole, elle s’ouvre et s’abaisse pour laisser passer le sang de l’atrium dans le ventricule.
 Mécaniquement, on peut dire qu'elle joue le rôle de soupape anti-retour ; elle règle le cours du sang dans la partie droite du cœur pendant la révolution
@@ -577,7 +593,9 @@
           <t>Rôles de la valve tricuspide</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La valve tricuspide empêche le reflux du sang entre le ventricule droit et l'atrium droit.
 </t>
@@ -608,7 +626,9 @@
           <t>Techniques d'exploration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La valve tricuspide est une structure fine et mobile et demandant par conséquent une définition spatio-temporelle importante pour bien être analysée.
 La radiographie du thorax ne permet pas de visualiser les valves sauf si elles sont calcifiées. Elle permet de voir le retentissement d'une atteinte valvulaire sur la taille des cavités cardiaques (modification de la taille du cœur ou de ses contours).
@@ -642,7 +662,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La valve tricuspide est à l'origine de certaines maladies (les valvulopathies) lorsqu'elle n'assure plus ses différentes fonctions. 
 L'atteinte de la valve tricuspide est la plus rare des valvulopathies cardiaques. Elle est souvent associée à une atteinte valvulaire ou myocardique gauche. Il s'agit majoritairement d'insuffisance tricuspide (ou fuite), le rétrécissement tricuspide étant actuellement exceptionnel.
